--- a/Schnittstelle.xlsx
+++ b/Schnittstelle.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phili\Dropbox\Roboterprojekt\Software\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phili\Source\Repos\AUP17-RoboProjekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="72">
   <si>
     <t>Telegram</t>
   </si>
@@ -144,27 +144,15 @@
     <t>Verbindung aufgebaut</t>
   </si>
   <si>
-    <t>Bestätigung</t>
-  </si>
-  <si>
     <t>Achsen verfahren</t>
   </si>
   <si>
-    <t>Bewegung beendet</t>
-  </si>
-  <si>
     <t>Aktuelle Position</t>
   </si>
   <si>
     <t>Referenzfahrt starten</t>
   </si>
   <si>
-    <t>Status Not-Halt</t>
-  </si>
-  <si>
-    <t>Status Endschalter</t>
-  </si>
-  <si>
     <t>spontan bei: Not-Halt oder Neustart =&gt; Referenz verloren</t>
   </si>
   <si>
@@ -192,18 +180,6 @@
     <t>err#1\n</t>
   </si>
   <si>
-    <t>est</t>
-  </si>
-  <si>
-    <t>Estop</t>
-  </si>
-  <si>
-    <t>E-Stop betätigt / nicht betätigt</t>
-  </si>
-  <si>
-    <t>spontan bei Änderung Not-Halt Status</t>
-  </si>
-  <si>
     <t>Servo</t>
   </si>
   <si>
@@ -253,6 +229,18 @@
   </si>
   <si>
     <t>&lt;con#1,100,1000,1000#2,23,1000,1000,100&gt;</t>
+  </si>
+  <si>
+    <t>spontan bei Änderung des Not-Halts</t>
+  </si>
+  <si>
+    <t>spontan bei Änderun der Endschalter</t>
+  </si>
+  <si>
+    <t>Bestätigung für alle Telegramme</t>
+  </si>
+  <si>
+    <t>Bewegung beendet / Zeit abgelaufen / …</t>
   </si>
 </sst>
 </file>
@@ -306,7 +294,26 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -317,6 +324,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:H14" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:H14"/>
+  <sortState ref="A2:H14">
+    <sortCondition ref="C1:C14"/>
+  </sortState>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Telegram"/>
+    <tableColumn id="2" name="Art"/>
+    <tableColumn id="3" name="Sender"/>
+    <tableColumn id="4" name="Empfänger"/>
+    <tableColumn id="5" name="Parameter"/>
+    <tableColumn id="6" name="Beshreibung"/>
+    <tableColumn id="7" name="Antworttelegramme"/>
+    <tableColumn id="8" name="Beispiel"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -582,22 +609,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="121.85546875" customWidth="1"/>
-    <col min="6" max="6" width="52.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="116.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -628,36 +655,36 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" t="s">
-        <v>35</v>
+        <v>70</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="H2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -669,47 +696,47 @@
         <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
       </c>
-      <c r="G4" t="s">
-        <v>36</v>
+      <c r="G4" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -717,25 +744,25 @@
       <c r="D5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>37</v>
+      <c r="E5" t="s">
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -744,50 +771,50 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>73</v>
+        <v>4</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -796,24 +823,24 @@
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -822,97 +849,102 @@
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="G10" t="s">
+        <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>57</v>
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>64</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="G11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="G12" t="s">
+        <v>36</v>
       </c>
       <c r="H12" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -921,24 +953,24 @@
         <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="G13" t="s">
         <v>9</v>
       </c>
       <c r="H13" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -950,44 +982,21 @@
         <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="G14" t="s">
         <v>9</v>
       </c>
       <c r="H14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/Schnittstelle.xlsx
+++ b/Schnittstelle.xlsx
@@ -612,7 +612,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
